--- a/raw_game_pulls/6199304_Play-By-Play for Texas Southern vs Mississippi Val..xlsx
+++ b/raw_game_pulls/6199304_Play-By-Play for Texas Southern vs Mississippi Val..xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4BD0B1-C9EA-41AA-85A5-6D1ACBCA633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -601,27 +607,15 @@
     <t>00:18</t>
   </si>
   <si>
-    <t>Jumper MISSED by VALLEY's Hamilton, Walter</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by Carter, Grayson</t>
   </si>
   <si>
     <t>Jumper MISSED by TSU's Carter, Grayson</t>
   </si>
   <si>
-    <t>VALLEY Defensive REBOUND by Hamilton, Walter</t>
-  </si>
-  <si>
-    <t>VALLEY Turnover by Hamilton, Walter</t>
-  </si>
-  <si>
     <t>TSU Steal by Cisse, Jonathan</t>
   </si>
   <si>
-    <t>Foul on VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by TSU's Cisse, Jonathan</t>
   </si>
   <si>
@@ -631,78 +625,27 @@
     <t>Free Throw GOOD by TSU's Cisse, Jonathan</t>
   </si>
   <si>
-    <t>VALLEY Turnover by Brown, Rayquan</t>
-  </si>
-  <si>
     <t>TSU Steal by Granger, Kolby</t>
   </si>
   <si>
-    <t>Foul on VALLEY's Sanders, Donovan</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by TSU's Hayes, Zaire</t>
   </si>
   <si>
-    <t>VALLEY Defensive REBOUND by Washington, Danny</t>
-  </si>
-  <si>
-    <t>Layup MISSED by VALLEY's Hamilton, Walter</t>
-  </si>
-  <si>
     <t>TSU Block by Hunter, Kenny</t>
   </si>
   <si>
-    <t>VALLEY Defensive REBOUND by Sanders, Donovan</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by VALLEY's Washington, Danny</t>
-  </si>
-  <si>
-    <t>VALLEY Assist by Sanders, Donovan</t>
-  </si>
-  <si>
     <t>Jumper GOOD by TSU's Carter, Grayson</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by VALLEY's Hamilton, Walter</t>
-  </si>
-  <si>
     <t>TSU Turnover by Cisse, Jonathan</t>
   </si>
   <si>
-    <t>Layup MISSED by VALLEY's Sanders, Donovan</t>
-  </si>
-  <si>
     <t>TSU Block by Granger, Kolby</t>
   </si>
   <si>
-    <t>VALLEY Offensive REBOUND by Brown, Rayquan</t>
-  </si>
-  <si>
     <t>Foul on TSU's Hayes, Zaire</t>
   </si>
   <si>
-    <t>Free Throw MISSED by VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
-    <t>VALLEY gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
-    <t>Subbing in for VALLEY - Minton, Ernest</t>
-  </si>
-  <si>
-    <t>Subbing in for VALLEY - Reynolds, Reginald</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Hamilton, Walter</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Gipson, Arecko</t>
-  </si>
-  <si>
     <t>Jumper GOOD by TSU's Hunter, Kenny</t>
   </si>
   <si>
@@ -712,33 +655,21 @@
     <t>Media timeout</t>
   </si>
   <si>
-    <t>VALLEY Turnover by Minton, Ernest</t>
-  </si>
-  <si>
     <t>Jumper MISSED by TSU's Granger, Kolby</t>
   </si>
   <si>
-    <t>VALLEY Block by Reynolds, Reginald</t>
-  </si>
-  <si>
     <t>TSU Offensive REBOUND by Carter, Grayson</t>
   </si>
   <si>
     <t>Layup GOOD by TSU's Carter, Grayson</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by VALLEY's Reynolds, Reginald</t>
-  </si>
-  <si>
     <t>Slam Dunk GOOD by TSU's Hunter, Kenny</t>
   </si>
   <si>
     <t>TSU Steal by Hunter, Kenny</t>
   </si>
   <si>
-    <t>Foul on VALLEY's Minton, Ernest</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by TSU's Hayes, Zaire</t>
   </si>
   <si>
@@ -748,15 +679,9 @@
     <t>Subbing out for TSU - Carter, Grayson</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by VALLEY's Reynolds, Reginald</t>
-  </si>
-  <si>
     <t>Foul on TSU's Stroud, Deon</t>
   </si>
   <si>
-    <t>Jumper MISSED by VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by Stroud, Deon</t>
   </si>
   <si>
@@ -769,24 +694,9 @@
     <t>Tip In GOOD by TSU's Hunter, Kenny</t>
   </si>
   <si>
-    <t>Jumper MISSED by VALLEY's Sanders, Donovan</t>
-  </si>
-  <si>
     <t>Foul on TSU's Hunter, Kenny</t>
   </si>
   <si>
-    <t>Subbing in for VALLEY - Ivory III, George</t>
-  </si>
-  <si>
-    <t>Subbing in for VALLEY - Waldon, Quorien</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Minton, Ernest</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Washington, Danny</t>
-  </si>
-  <si>
     <t>Subbing in for TSU - Mortle, Zytarious</t>
   </si>
   <si>
@@ -805,12 +715,6 @@
     <t>TSU Block by Stroud, Deon</t>
   </si>
   <si>
-    <t>VALLEY Offensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>VALLEY Turnover by Waldon, Quorien</t>
-  </si>
-  <si>
     <t>Subbing in for TSU - Carter, Grayson</t>
   </si>
   <si>
@@ -826,66 +730,30 @@
     <t>TSU Assist by Cisse, Jonathan</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by Cisse, Jonathan</t>
   </si>
   <si>
     <t>TSU Turnover by Mortle, Zytarious</t>
   </si>
   <si>
-    <t>Subbing in for VALLEY - Washington, Danny</t>
-  </si>
-  <si>
-    <t>Subbing in for VALLEY - Hamilton, Walter</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Sanders, Donovan</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Waldon, Quorien</t>
-  </si>
-  <si>
     <t>Subbing in for TSU - Wysinger, Jaylen</t>
   </si>
   <si>
     <t>Subbing out for TSU - Hayes, Zaire</t>
   </si>
   <si>
-    <t>VALLEY Turnover by Washington, Danny</t>
-  </si>
-  <si>
     <t>TSU Steal by Stroud, Deon</t>
   </si>
   <si>
     <t>Jumper MISSED by TSU's Mortle, Zytarious</t>
   </si>
   <si>
-    <t>VALLEY Defensive REBOUND by Brown, Rayquan</t>
-  </si>
-  <si>
-    <t>Layup GOOD by VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by TSU's Cisse, Jonathan</t>
   </si>
   <si>
     <t>TSU Offensive REBOUND by team</t>
   </si>
   <si>
-    <t>VALLEY Block by Hamilton, Walter</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by VALLEY's Washington, Danny</t>
-  </si>
-  <si>
-    <t>VALLEY Offensive REBOUND by Hamilton, Walter</t>
-  </si>
-  <si>
-    <t>Tip In GOOD by VALLEY's Hamilton, Walter</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by TSU's Mortle, Zytarious</t>
   </si>
   <si>
@@ -895,15 +763,6 @@
     <t>TSU Assist by Stroud, Deon</t>
   </si>
   <si>
-    <t>Subbing in for VALLEY - Clark, Darrius</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Brown, Rayquan</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Reynolds, Reginald</t>
-  </si>
-  <si>
     <t>Subbing in for TSU - Hunter, Kenny</t>
   </si>
   <si>
@@ -913,27 +772,15 @@
     <t>Subbing out for TSU - Cisse, Jonathan</t>
   </si>
   <si>
-    <t>Foul on VALLEY's Hamilton, Walter</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by TSU's Mortle, Zytarious</t>
   </si>
   <si>
     <t>Free Throw MISSED by TSU's Mortle, Zytarious</t>
   </si>
   <si>
-    <t>VALLEY Defensive REBOUND by Minton, Ernest</t>
-  </si>
-  <si>
-    <t>VALLEY Turnover by Ivory III, George</t>
-  </si>
-  <si>
     <t>TSU Steal by Mortle, Zytarious</t>
   </si>
   <si>
-    <t>Jumper MISSED by VALLEY's Clark, Darrius</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by Mortle, Zytarious</t>
   </si>
   <si>
@@ -946,27 +793,15 @@
     <t>3 Pointer GOOD by TSU's O'neal, Shaqir</t>
   </si>
   <si>
-    <t>Jumper GOOD by VALLEY's Minton, Ernest</t>
-  </si>
-  <si>
-    <t>VALLEY Assist by Hamilton, Walter</t>
-  </si>
-  <si>
     <t>Layup MISSED by TSU's Hunter, Kenny</t>
   </si>
   <si>
-    <t>Jumper MISSED by VALLEY's Washington, Danny</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by O'neal, Shaqir</t>
   </si>
   <si>
     <t>3 Pointer GOOD by TSU's Wysinger, Jaylen</t>
   </si>
   <si>
-    <t>VALLEY takes a 30-second time out.</t>
-  </si>
-  <si>
     <t>Subbing in for TSU - Craig, Chris</t>
   </si>
   <si>
@@ -976,33 +811,9 @@
     <t>Foul on TSU's Craig, Chris</t>
   </si>
   <si>
-    <t>Subbing in for VALLEY - Brown, Rayquan</t>
-  </si>
-  <si>
-    <t>Subbing in for VALLEY - Sanders, Donovan</t>
-  </si>
-  <si>
-    <t>Subbing in for VALLEY - Johnson, Jordan</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Ivory III, George</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Clark, Darrius</t>
-  </si>
-  <si>
-    <t>VALLEY Assist by Minton, Ernest</t>
-  </si>
-  <si>
     <t>TSU Assist by Craig, Chris</t>
   </si>
   <si>
-    <t>Free Throw GOOD by VALLEY's Sanders, Donovan</t>
-  </si>
-  <si>
-    <t>Subbing in for VALLEY - Gipson, Arecko</t>
-  </si>
-  <si>
     <t>Subbing in for TSU - Cisse, Jonathan</t>
   </si>
   <si>
@@ -1012,126 +823,57 @@
     <t>TSU Defensive REBOUND by Hunter, Kenny</t>
   </si>
   <si>
-    <t>Layup GOOD by VALLEY's Sanders, Donovan</t>
-  </si>
-  <si>
-    <t>Foul on VALLEY's Johnson, Jordan</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by VALLEY's Gipson, Arecko</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by Craig, Chris</t>
   </si>
   <si>
     <t>Layup MISSED by TSU's Carter, Grayson</t>
   </si>
   <si>
-    <t>Layup MISSED by VALLEY's Gipson, Arecko</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by team</t>
   </si>
   <si>
-    <t>VALLEY Defensive REBOUND by Gipson, Arecko</t>
-  </si>
-  <si>
     <t>Foul on TSU's Carter, Grayson</t>
   </si>
   <si>
-    <t>Free Throw MISSED by VALLEY's Gipson, Arecko</t>
-  </si>
-  <si>
-    <t>Foul on VALLEY's Reynolds, Reginald</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by TSU's Wysinger, Jaylen</t>
   </si>
   <si>
-    <t>Subbing in for VALLEY - Petro, Markell</t>
-  </si>
-  <si>
-    <t>Subbing out for VALLEY - Johnson, Jordan</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by Granger, Kolby</t>
   </si>
   <si>
     <t>3 Pointer GOOD by TSU's Carter, Grayson</t>
   </si>
   <si>
-    <t>Tip In MISSED by VALLEY's Hamilton, Walter</t>
-  </si>
-  <si>
-    <t>VALLEY Offensive REBOUND by Washington, Danny</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by TSU's Granger, Kolby</t>
   </si>
   <si>
-    <t>VALLEY Assist by Gipson, Arecko</t>
-  </si>
-  <si>
     <t>Jumper GOOD by TSU's Hayes, Zaire</t>
   </si>
   <si>
-    <t>Layup GOOD by VALLEY's Gipson, Arecko</t>
-  </si>
-  <si>
-    <t>VALLEY Assist by Brown, Rayquan</t>
-  </si>
-  <si>
     <t>TSU Assist by Granger, Kolby</t>
   </si>
   <si>
-    <t>Layup MISSED by VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
     <t>TSU Block by Carter, Grayson</t>
   </si>
   <si>
     <t>Media time out</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by VALLEY's Sanders, Donovan</t>
-  </si>
-  <si>
     <t>Jumper MISSED by TSU's Hunter, Kenny</t>
   </si>
   <si>
-    <t>VALLEY Defensive REBOUND by Reynolds, Reginald</t>
-  </si>
-  <si>
-    <t>Tip In GOOD by VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
-    <t>VALLEY Turnover by Gipson, Arecko</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by TSU's Carter, Grayson</t>
   </si>
   <si>
     <t>Jumper GOOD by TSU's Cisse, Jonathan</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by VALLEY's Gipson, Arecko</t>
-  </si>
-  <si>
-    <t>Foul on VALLEY's Washington, Danny</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by TSU's Wysinger, Jaylen</t>
   </si>
   <si>
     <t>Foul on TSU's Granger, Kolby</t>
   </si>
   <si>
-    <t>Free Throw GOOD by VALLEY's Gipson, Arecko</t>
-  </si>
-  <si>
-    <t>VALLEY Defensive REBOUND by team</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by Wysinger, Jaylen</t>
   </si>
   <si>
@@ -1141,39 +883,18 @@
     <t>Layup MISSED by TSU's Wysinger, Jaylen</t>
   </si>
   <si>
-    <t>VALLEY Steal by Washington, Danny</t>
-  </si>
-  <si>
-    <t>VALLEY Offensive REBOUND by Sanders, Donovan</t>
-  </si>
-  <si>
     <t>TSU Turnover by Wysinger, Jaylen</t>
   </si>
   <si>
-    <t>Jumper MISSED by VALLEY's Reynolds, Reginald</t>
-  </si>
-  <si>
-    <t>Layup MISSED by VALLEY's Reynolds, Reginald</t>
-  </si>
-  <si>
     <t>TSU Block by Wysinger, Jaylen</t>
   </si>
   <si>
-    <t>VALLEY Offensive REBOUND by Reynolds, Reginald</t>
-  </si>
-  <si>
-    <t>Tip In MISSED by VALLEY's Reynolds, Reginald</t>
-  </si>
-  <si>
     <t>Subbing out for TSU - Wysinger, Jaylen</t>
   </si>
   <si>
     <t>3 Pointer GOOD by TSU's Mortle, Zytarious</t>
   </si>
   <si>
-    <t>Tip In MISSED by VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
     <t>TSU Defensive REBOUND by Hayes, Zaire</t>
   </si>
   <si>
@@ -1183,9 +904,6 @@
     <t>TSU Turnover by Stroud, Deon</t>
   </si>
   <si>
-    <t>VALLEY Steal by Sanders, Donovan</t>
-  </si>
-  <si>
     <t>Subbing in for TSU - Young jr., Jahmar</t>
   </si>
   <si>
@@ -1198,18 +916,6 @@
     <t>Slam Dunk GOOD by TSU's Stroud, Deon</t>
   </si>
   <si>
-    <t>Jumper GOOD by VALLEY's Brown, Rayquan</t>
-  </si>
-  <si>
-    <t>Subbing in for VALLEY - Umeh, Chidi</t>
-  </si>
-  <si>
-    <t>Layup GOOD by VALLEY's Washington, Danny</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by VALLEY's Washington, Danny</t>
-  </si>
-  <si>
     <t>Jumper GOOD by TSU's Mortle, Zytarious</t>
   </si>
   <si>
@@ -1222,24 +928,12 @@
     <t>3 Pointer MISSED by TSU's Davis, Mario</t>
   </si>
   <si>
-    <t>VALLEY Offensive REBOUND by Umeh, Chidi</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by VALLEY's Umeh, Chidi</t>
-  </si>
-  <si>
-    <t>Foul on VALLEY's Gipson, Arecko</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by TSU's Stroud, Deon</t>
   </si>
   <si>
     <t>Free Throw MISSED by TSU's Stroud, Deon</t>
   </si>
   <si>
-    <t>VALLEY Offensive REBOUND by Petro, Markell</t>
-  </si>
-  <si>
     <t>TSU Turnover by Craig, Chris</t>
   </si>
   <si>
@@ -1249,23 +943,335 @@
     <t>3 Pointer GOOD by TSU's Davis, Mario</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by VALLEY's Umeh, Chidi</t>
-  </si>
-  <si>
-    <t>Layup MISSED by VALLEY's Petro, Markell</t>
-  </si>
-  <si>
     <t>TSU Block by Davis, Mario</t>
   </si>
   <si>
     <t>TSU Defensive REBOUND by Davis, Mario</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by MVSU's Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>MVSU Defensive REBOUND by Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>MVSU Turnover by Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>Foul on MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>MVSU Turnover by Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Foul on MVSU's Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>MVSU Defensive REBOUND by Washington, Danny</t>
+  </si>
+  <si>
+    <t>Layup MISSED by MVSU's Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>MVSU Defensive REBOUND by Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by MVSU's Washington, Danny</t>
+  </si>
+  <si>
+    <t>MVSU Assist by Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by MVSU's Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>Layup MISSED by MVSU's Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>MVSU Offensive REBOUND by Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>MVSU gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Minton, Ernest</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>MVSU Turnover by Minton, Ernest</t>
+  </si>
+  <si>
+    <t>MVSU Block by Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by MVSU's Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>Foul on MVSU's Minton, Ernest</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by MVSU's Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by MVSU's Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Ivory III, George</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Waldon, Quorien</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Minton, Ernest</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Washington, Danny</t>
+  </si>
+  <si>
+    <t>MVSU Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>MVSU Turnover by Waldon, Quorien</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Washington, Danny</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Waldon, Quorien</t>
+  </si>
+  <si>
+    <t>MVSU Turnover by Washington, Danny</t>
+  </si>
+  <si>
+    <t>MVSU Defensive REBOUND by Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Layup GOOD by MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>MVSU Block by Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by MVSU's Washington, Danny</t>
+  </si>
+  <si>
+    <t>MVSU Offensive REBOUND by Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>Tip In GOOD by MVSU's Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Clark, Darrius</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>Foul on MVSU's Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>MVSU Defensive REBOUND by Minton, Ernest</t>
+  </si>
+  <si>
+    <t>MVSU Turnover by Ivory III, George</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by MVSU's Clark, Darrius</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by MVSU's Minton, Ernest</t>
+  </si>
+  <si>
+    <t>MVSU Assist by Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by MVSU's Washington, Danny</t>
+  </si>
+  <si>
+    <t>MVSU takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Johnson, Jordan</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Ivory III, George</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Clark, Darrius</t>
+  </si>
+  <si>
+    <t>MVSU Assist by Minton, Ernest</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by MVSU's Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>Layup GOOD by MVSU's Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>Foul on MVSU's Johnson, Jordan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by MVSU's Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>Layup MISSED by MVSU's Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>MVSU Defensive REBOUND by Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by MVSU's Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>Foul on MVSU's Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Petro, Markell</t>
+  </si>
+  <si>
+    <t>Subbing out for MVSU - Johnson, Jordan</t>
+  </si>
+  <si>
+    <t>Tip In MISSED by MVSU's Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>MVSU Offensive REBOUND by Washington, Danny</t>
+  </si>
+  <si>
+    <t>MVSU Assist by Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>Layup GOOD by MVSU's Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>MVSU Assist by Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Layup MISSED by MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by MVSU's Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>MVSU Defensive REBOUND by Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>Tip In GOOD by MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>MVSU Turnover by Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by MVSU's Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>Foul on MVSU's Washington, Danny</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by MVSU's Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>MVSU Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>MVSU Steal by Washington, Danny</t>
+  </si>
+  <si>
+    <t>MVSU Offensive REBOUND by Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by MVSU's Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>Layup MISSED by MVSU's Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>MVSU Offensive REBOUND by Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>Tip In MISSED by MVSU's Reynolds, Reginald</t>
+  </si>
+  <si>
+    <t>Tip In MISSED by MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>MVSU Steal by Sanders, Donovan</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by MVSU's Brown, Rayquan</t>
+  </si>
+  <si>
+    <t>Subbing in for MVSU - Umeh, Chidi</t>
+  </si>
+  <si>
+    <t>Layup GOOD by MVSU's Washington, Danny</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by MVSU's Washington, Danny</t>
+  </si>
+  <si>
+    <t>MVSU Offensive REBOUND by Umeh, Chidi</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by MVSU's Umeh, Chidi</t>
+  </si>
+  <si>
+    <t>Foul on MVSU's Gipson, Arecko</t>
+  </si>
+  <si>
+    <t>MVSU Offensive REBOUND by Petro, Markell</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by MVSU's Umeh, Chidi</t>
+  </si>
+  <si>
+    <t>Layup MISSED by MVSU's Petro, Markell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1328,13 +1334,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1372,7 +1386,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1406,6 +1420,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1440,9 +1455,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1615,14 +1631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1653,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1670,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1687,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1704,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1721,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1738,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1755,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1772,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1789,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1806,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1823,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1840,10 +1856,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1857,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1874,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1891,10 +1907,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1908,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1925,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1942,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1959,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1976,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1993,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2010,10 +2026,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2027,10 +2043,10 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2044,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2061,10 +2077,10 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2078,10 +2094,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2095,10 +2111,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2112,10 +2128,10 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2129,10 +2145,10 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2146,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2163,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2180,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2197,10 +2213,10 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2214,10 +2230,10 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2231,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2248,10 +2264,10 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2265,10 +2281,10 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2282,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2299,10 +2315,10 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2316,10 +2332,10 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2333,10 +2349,10 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2350,10 +2366,10 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2367,10 +2383,10 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2384,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2401,10 +2417,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2418,10 +2434,10 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2435,10 +2451,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2452,10 +2468,10 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2469,10 +2485,10 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2486,10 +2502,10 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2503,10 +2519,10 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2520,10 +2536,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2537,10 +2553,10 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2554,10 +2570,10 @@
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2571,10 +2587,10 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2588,10 +2604,10 @@
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2605,10 +2621,10 @@
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2622,10 +2638,10 @@
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2639,10 +2655,10 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2656,10 +2672,10 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2673,10 +2689,10 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2690,10 +2706,10 @@
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2707,10 +2723,10 @@
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2724,10 +2740,10 @@
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2741,10 +2757,10 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2758,10 +2774,10 @@
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2775,10 +2791,10 @@
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2792,10 +2808,10 @@
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2809,10 +2825,10 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2826,10 +2842,10 @@
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2843,10 +2859,10 @@
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2860,10 +2876,10 @@
         <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2877,10 +2893,10 @@
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2894,10 +2910,10 @@
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2911,10 +2927,10 @@
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2928,10 +2944,10 @@
         <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2945,10 +2961,10 @@
         <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2962,10 +2978,10 @@
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2979,10 +2995,10 @@
         <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2996,10 +3012,10 @@
         <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3013,10 +3029,10 @@
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3030,10 +3046,10 @@
         <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3047,10 +3063,10 @@
         <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3064,10 +3080,10 @@
         <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3081,10 +3097,10 @@
         <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3098,10 +3114,10 @@
         <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3115,10 +3131,10 @@
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3132,10 +3148,10 @@
         <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3149,10 +3165,10 @@
         <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3166,10 +3182,10 @@
         <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3183,10 +3199,10 @@
         <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3200,10 +3216,10 @@
         <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3217,10 +3233,10 @@
         <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3234,10 +3250,10 @@
         <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3251,10 +3267,10 @@
         <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3268,10 +3284,10 @@
         <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3285,10 +3301,10 @@
         <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3302,10 +3318,10 @@
         <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3319,10 +3335,10 @@
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3336,10 +3352,10 @@
         <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3353,10 +3369,10 @@
         <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3370,10 +3386,10 @@
         <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3387,10 +3403,10 @@
         <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3404,10 +3420,10 @@
         <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3421,10 +3437,10 @@
         <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3438,10 +3454,10 @@
         <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3455,10 +3471,10 @@
         <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3472,10 +3488,10 @@
         <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3489,10 +3505,10 @@
         <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3506,10 +3522,10 @@
         <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3523,10 +3539,10 @@
         <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3540,10 +3556,10 @@
         <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3557,10 +3573,10 @@
         <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3574,10 +3590,10 @@
         <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3591,10 +3607,10 @@
         <v>22</v>
       </c>
       <c r="E116" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3608,10 +3624,10 @@
         <v>22</v>
       </c>
       <c r="E117" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3625,10 +3641,10 @@
         <v>22</v>
       </c>
       <c r="E118" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3642,10 +3658,10 @@
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3659,10 +3675,10 @@
         <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3676,10 +3692,10 @@
         <v>24</v>
       </c>
       <c r="E121" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3693,10 +3709,10 @@
         <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3710,10 +3726,10 @@
         <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3727,10 +3743,10 @@
         <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3744,10 +3760,10 @@
         <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3761,10 +3777,10 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3778,10 +3794,10 @@
         <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3795,10 +3811,10 @@
         <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3812,10 +3828,10 @@
         <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3829,10 +3845,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3846,10 +3862,10 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3863,10 +3879,10 @@
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3880,10 +3896,10 @@
         <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3897,10 +3913,10 @@
         <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3914,10 +3930,10 @@
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3931,10 +3947,10 @@
         <v>28</v>
       </c>
       <c r="E136" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3948,10 +3964,10 @@
         <v>28</v>
       </c>
       <c r="E137" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3965,10 +3981,10 @@
         <v>28</v>
       </c>
       <c r="E138" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3982,10 +3998,10 @@
         <v>28</v>
       </c>
       <c r="E139" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3999,10 +4015,10 @@
         <v>28</v>
       </c>
       <c r="E140" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4016,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="E141" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4033,10 +4049,10 @@
         <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4050,10 +4066,10 @@
         <v>30</v>
       </c>
       <c r="E143" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4067,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="E144" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4084,10 +4100,10 @@
         <v>30</v>
       </c>
       <c r="E145" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4101,10 +4117,10 @@
         <v>30</v>
       </c>
       <c r="E146" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4118,10 +4134,10 @@
         <v>33</v>
       </c>
       <c r="E147" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4135,10 +4151,10 @@
         <v>33</v>
       </c>
       <c r="E148" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4152,10 +4168,10 @@
         <v>33</v>
       </c>
       <c r="E149" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4169,10 +4185,10 @@
         <v>33</v>
       </c>
       <c r="E150" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4186,10 +4202,10 @@
         <v>33</v>
       </c>
       <c r="E151" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4203,10 +4219,10 @@
         <v>33</v>
       </c>
       <c r="E152" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4220,10 +4236,10 @@
         <v>33</v>
       </c>
       <c r="E153" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4237,10 +4253,10 @@
         <v>33</v>
       </c>
       <c r="E154" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4254,10 +4270,10 @@
         <v>33</v>
       </c>
       <c r="E155" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4271,10 +4287,10 @@
         <v>36</v>
       </c>
       <c r="E156" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4288,10 +4304,10 @@
         <v>36</v>
       </c>
       <c r="E157" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4305,10 +4321,10 @@
         <v>36</v>
       </c>
       <c r="E158" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4322,10 +4338,10 @@
         <v>36</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4339,10 +4355,10 @@
         <v>36</v>
       </c>
       <c r="E160" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4356,10 +4372,10 @@
         <v>36</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4373,10 +4389,10 @@
         <v>36</v>
       </c>
       <c r="E162" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4390,10 +4406,10 @@
         <v>36</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4407,10 +4423,10 @@
         <v>36</v>
       </c>
       <c r="E164" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4424,10 +4440,10 @@
         <v>36</v>
       </c>
       <c r="E165" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4441,10 +4457,10 @@
         <v>36</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4458,10 +4474,10 @@
         <v>36</v>
       </c>
       <c r="E167" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4475,10 +4491,10 @@
         <v>36</v>
       </c>
       <c r="E168" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4492,10 +4508,10 @@
         <v>36</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4509,10 +4525,10 @@
         <v>38</v>
       </c>
       <c r="E170" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4526,10 +4542,10 @@
         <v>38</v>
       </c>
       <c r="E171" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4543,10 +4559,10 @@
         <v>38</v>
       </c>
       <c r="E172" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4560,10 +4576,10 @@
         <v>38</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4577,10 +4593,10 @@
         <v>38</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4594,10 +4610,10 @@
         <v>38</v>
       </c>
       <c r="E175" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4611,10 +4627,10 @@
         <v>38</v>
       </c>
       <c r="E176" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4628,10 +4644,10 @@
         <v>38</v>
       </c>
       <c r="E177" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4645,10 +4661,10 @@
         <v>38</v>
       </c>
       <c r="E178" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4662,10 +4678,10 @@
         <v>40</v>
       </c>
       <c r="E179" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4679,10 +4695,10 @@
         <v>40</v>
       </c>
       <c r="E180" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4696,10 +4712,10 @@
         <v>40</v>
       </c>
       <c r="E181" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4713,10 +4729,10 @@
         <v>40</v>
       </c>
       <c r="E182" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4730,10 +4746,10 @@
         <v>40</v>
       </c>
       <c r="E183" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4747,10 +4763,10 @@
         <v>40</v>
       </c>
       <c r="E184" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4764,10 +4780,10 @@
         <v>40</v>
       </c>
       <c r="E185" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4781,10 +4797,10 @@
         <v>40</v>
       </c>
       <c r="E186" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4798,10 +4814,10 @@
         <v>40</v>
       </c>
       <c r="E187" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4815,10 +4831,10 @@
         <v>40</v>
       </c>
       <c r="E188" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4832,10 +4848,10 @@
         <v>40</v>
       </c>
       <c r="E189" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4849,10 +4865,10 @@
         <v>40</v>
       </c>
       <c r="E190" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4866,10 +4882,10 @@
         <v>40</v>
       </c>
       <c r="E191" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4883,10 +4899,10 @@
         <v>40</v>
       </c>
       <c r="E192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4900,10 +4916,10 @@
         <v>40</v>
       </c>
       <c r="E193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4917,10 +4933,10 @@
         <v>40</v>
       </c>
       <c r="E194" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4934,10 +4950,10 @@
         <v>40</v>
       </c>
       <c r="E195" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4951,10 +4967,10 @@
         <v>40</v>
       </c>
       <c r="E196" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -4968,10 +4984,10 @@
         <v>40</v>
       </c>
       <c r="E197" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -4985,10 +5001,10 @@
         <v>40</v>
       </c>
       <c r="E198" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5002,10 +5018,10 @@
         <v>40</v>
       </c>
       <c r="E199" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5019,10 +5035,10 @@
         <v>40</v>
       </c>
       <c r="E200" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5036,10 +5052,10 @@
         <v>40</v>
       </c>
       <c r="E201" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5053,10 +5069,10 @@
         <v>40</v>
       </c>
       <c r="E202" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5070,10 +5086,10 @@
         <v>40</v>
       </c>
       <c r="E203" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5087,10 +5103,10 @@
         <v>40</v>
       </c>
       <c r="E204" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5104,10 +5120,10 @@
         <v>40</v>
       </c>
       <c r="E205" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5121,10 +5137,10 @@
         <v>40</v>
       </c>
       <c r="E206" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5138,10 +5154,10 @@
         <v>43</v>
       </c>
       <c r="E207" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5155,10 +5171,10 @@
         <v>43</v>
       </c>
       <c r="E208" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5172,10 +5188,10 @@
         <v>43</v>
       </c>
       <c r="E209" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5189,10 +5205,10 @@
         <v>43</v>
       </c>
       <c r="E210" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5206,10 +5222,10 @@
         <v>43</v>
       </c>
       <c r="E211" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5223,10 +5239,10 @@
         <v>43</v>
       </c>
       <c r="E212" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5240,10 +5256,10 @@
         <v>43</v>
       </c>
       <c r="E213" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5257,10 +5273,10 @@
         <v>43</v>
       </c>
       <c r="E214" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5274,10 +5290,10 @@
         <v>43</v>
       </c>
       <c r="E215" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5291,10 +5307,10 @@
         <v>43</v>
       </c>
       <c r="E216" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5308,10 +5324,10 @@
         <v>43</v>
       </c>
       <c r="E217" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5325,10 +5341,10 @@
         <v>43</v>
       </c>
       <c r="E218" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5342,10 +5358,10 @@
         <v>43</v>
       </c>
       <c r="E219" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5359,10 +5375,10 @@
         <v>46</v>
       </c>
       <c r="E220" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2</v>
       </c>
@@ -5376,10 +5392,10 @@
         <v>48</v>
       </c>
       <c r="E221" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2</v>
       </c>
@@ -5393,10 +5409,10 @@
         <v>48</v>
       </c>
       <c r="E222" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2</v>
       </c>
@@ -5410,10 +5426,10 @@
         <v>48</v>
       </c>
       <c r="E223" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2</v>
       </c>
@@ -5427,10 +5443,10 @@
         <v>51</v>
       </c>
       <c r="E224" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2</v>
       </c>
@@ -5444,10 +5460,10 @@
         <v>51</v>
       </c>
       <c r="E225" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2</v>
       </c>
@@ -5461,10 +5477,10 @@
         <v>51</v>
       </c>
       <c r="E226" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2</v>
       </c>
@@ -5478,10 +5494,10 @@
         <v>51</v>
       </c>
       <c r="E227" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2</v>
       </c>
@@ -5495,10 +5511,10 @@
         <v>51</v>
       </c>
       <c r="E228" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2</v>
       </c>
@@ -5512,10 +5528,10 @@
         <v>51</v>
       </c>
       <c r="E229" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2</v>
       </c>
@@ -5529,10 +5545,10 @@
         <v>51</v>
       </c>
       <c r="E230" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2</v>
       </c>
@@ -5546,10 +5562,10 @@
         <v>51</v>
       </c>
       <c r="E231" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2</v>
       </c>
@@ -5563,10 +5579,10 @@
         <v>51</v>
       </c>
       <c r="E232" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2</v>
       </c>
@@ -5580,10 +5596,10 @@
         <v>51</v>
       </c>
       <c r="E233" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2</v>
       </c>
@@ -5597,10 +5613,10 @@
         <v>51</v>
       </c>
       <c r="E234" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2</v>
       </c>
@@ -5614,10 +5630,10 @@
         <v>51</v>
       </c>
       <c r="E235" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2</v>
       </c>
@@ -5631,10 +5647,10 @@
         <v>51</v>
       </c>
       <c r="E236" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2</v>
       </c>
@@ -5648,10 +5664,10 @@
         <v>51</v>
       </c>
       <c r="E237" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2</v>
       </c>
@@ -5665,10 +5681,10 @@
         <v>53</v>
       </c>
       <c r="E238" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2</v>
       </c>
@@ -5682,10 +5698,10 @@
         <v>53</v>
       </c>
       <c r="E239" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2</v>
       </c>
@@ -5699,10 +5715,10 @@
         <v>53</v>
       </c>
       <c r="E240" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2</v>
       </c>
@@ -5716,10 +5732,10 @@
         <v>56</v>
       </c>
       <c r="E241" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2</v>
       </c>
@@ -5733,10 +5749,10 @@
         <v>56</v>
       </c>
       <c r="E242" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2</v>
       </c>
@@ -5750,10 +5766,10 @@
         <v>56</v>
       </c>
       <c r="E243" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2</v>
       </c>
@@ -5767,10 +5783,10 @@
         <v>59</v>
       </c>
       <c r="E244" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2</v>
       </c>
@@ -5784,10 +5800,10 @@
         <v>59</v>
       </c>
       <c r="E245" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2</v>
       </c>
@@ -5801,10 +5817,10 @@
         <v>59</v>
       </c>
       <c r="E246" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2</v>
       </c>
@@ -5818,10 +5834,10 @@
         <v>59</v>
       </c>
       <c r="E247" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2</v>
       </c>
@@ -5835,10 +5851,10 @@
         <v>61</v>
       </c>
       <c r="E248" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2</v>
       </c>
@@ -5852,10 +5868,10 @@
         <v>61</v>
       </c>
       <c r="E249" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2</v>
       </c>
@@ -5869,10 +5885,10 @@
         <v>61</v>
       </c>
       <c r="E250" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2</v>
       </c>
@@ -5886,10 +5902,10 @@
         <v>61</v>
       </c>
       <c r="E251" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2</v>
       </c>
@@ -5903,10 +5919,10 @@
         <v>61</v>
       </c>
       <c r="E252" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2</v>
       </c>
@@ -5920,10 +5936,10 @@
         <v>61</v>
       </c>
       <c r="E253" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2</v>
       </c>
@@ -5937,10 +5953,10 @@
         <v>61</v>
       </c>
       <c r="E254" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2</v>
       </c>
@@ -5954,10 +5970,10 @@
         <v>61</v>
       </c>
       <c r="E255" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2</v>
       </c>
@@ -5971,10 +5987,10 @@
         <v>61</v>
       </c>
       <c r="E256" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2</v>
       </c>
@@ -5988,10 +6004,10 @@
         <v>61</v>
       </c>
       <c r="E257" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2</v>
       </c>
@@ -6005,10 +6021,10 @@
         <v>61</v>
       </c>
       <c r="E258" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -6022,10 +6038,10 @@
         <v>61</v>
       </c>
       <c r="E259" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -6039,10 +6055,10 @@
         <v>61</v>
       </c>
       <c r="E260" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -6056,10 +6072,10 @@
         <v>61</v>
       </c>
       <c r="E261" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2</v>
       </c>
@@ -6073,10 +6089,10 @@
         <v>61</v>
       </c>
       <c r="E262" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6090,10 +6106,10 @@
         <v>63</v>
       </c>
       <c r="E263" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
@@ -6107,10 +6123,10 @@
         <v>63</v>
       </c>
       <c r="E264" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6124,10 +6140,10 @@
         <v>63</v>
       </c>
       <c r="E265" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
@@ -6141,10 +6157,10 @@
         <v>63</v>
       </c>
       <c r="E266" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6158,10 +6174,10 @@
         <v>63</v>
       </c>
       <c r="E267" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
@@ -6175,10 +6191,10 @@
         <v>64</v>
       </c>
       <c r="E268" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6192,10 +6208,10 @@
         <v>65</v>
       </c>
       <c r="E269" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6209,10 +6225,10 @@
         <v>65</v>
       </c>
       <c r="E270" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6226,10 +6242,10 @@
         <v>65</v>
       </c>
       <c r="E271" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
@@ -6243,10 +6259,10 @@
         <v>65</v>
       </c>
       <c r="E272" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6260,10 +6276,10 @@
         <v>65</v>
       </c>
       <c r="E273" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6277,10 +6293,10 @@
         <v>67</v>
       </c>
       <c r="E274" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6294,10 +6310,10 @@
         <v>67</v>
       </c>
       <c r="E275" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6311,10 +6327,10 @@
         <v>67</v>
       </c>
       <c r="E276" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6328,10 +6344,10 @@
         <v>67</v>
       </c>
       <c r="E277" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6345,10 +6361,10 @@
         <v>68</v>
       </c>
       <c r="E278" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6362,10 +6378,10 @@
         <v>69</v>
       </c>
       <c r="E279" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6379,10 +6395,10 @@
         <v>69</v>
       </c>
       <c r="E280" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6396,10 +6412,10 @@
         <v>69</v>
       </c>
       <c r="E281" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6413,10 +6429,10 @@
         <v>69</v>
       </c>
       <c r="E282" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6430,10 +6446,10 @@
         <v>69</v>
       </c>
       <c r="E283" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6447,10 +6463,10 @@
         <v>69</v>
       </c>
       <c r="E284" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6464,10 +6480,10 @@
         <v>69</v>
       </c>
       <c r="E285" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6481,10 +6497,10 @@
         <v>69</v>
       </c>
       <c r="E286" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6498,10 +6514,10 @@
         <v>69</v>
       </c>
       <c r="E287" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6515,10 +6531,10 @@
         <v>69</v>
       </c>
       <c r="E288" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6532,10 +6548,10 @@
         <v>69</v>
       </c>
       <c r="E289" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6549,10 +6565,10 @@
         <v>69</v>
       </c>
       <c r="E290" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6566,10 +6582,10 @@
         <v>69</v>
       </c>
       <c r="E291" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6583,10 +6599,10 @@
         <v>69</v>
       </c>
       <c r="E292" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6600,10 +6616,10 @@
         <v>69</v>
       </c>
       <c r="E293" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6617,10 +6633,10 @@
         <v>69</v>
       </c>
       <c r="E294" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6634,10 +6650,10 @@
         <v>69</v>
       </c>
       <c r="E295" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6651,10 +6667,10 @@
         <v>69</v>
       </c>
       <c r="E296" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6668,10 +6684,10 @@
         <v>69</v>
       </c>
       <c r="E297" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6685,10 +6701,10 @@
         <v>69</v>
       </c>
       <c r="E298" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6702,10 +6718,10 @@
         <v>69</v>
       </c>
       <c r="E299" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6719,10 +6735,10 @@
         <v>69</v>
       </c>
       <c r="E300" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6736,10 +6752,10 @@
         <v>69</v>
       </c>
       <c r="E301" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6753,10 +6769,10 @@
         <v>69</v>
       </c>
       <c r="E302" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6770,10 +6786,10 @@
         <v>69</v>
       </c>
       <c r="E303" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6787,10 +6803,10 @@
         <v>70</v>
       </c>
       <c r="E304" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
@@ -6804,10 +6820,10 @@
         <v>71</v>
       </c>
       <c r="E305" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -6821,10 +6837,10 @@
         <v>71</v>
       </c>
       <c r="E306" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -6838,10 +6854,10 @@
         <v>71</v>
       </c>
       <c r="E307" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
@@ -6855,10 +6871,10 @@
         <v>71</v>
       </c>
       <c r="E308" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -6872,10 +6888,10 @@
         <v>71</v>
       </c>
       <c r="E309" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
@@ -6889,10 +6905,10 @@
         <v>71</v>
       </c>
       <c r="E310" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -6906,10 +6922,10 @@
         <v>71</v>
       </c>
       <c r="E311" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
@@ -6923,10 +6939,10 @@
         <v>71</v>
       </c>
       <c r="E312" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -6940,10 +6956,10 @@
         <v>71</v>
       </c>
       <c r="E313" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -6957,10 +6973,10 @@
         <v>71</v>
       </c>
       <c r="E314" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -6974,10 +6990,10 @@
         <v>71</v>
       </c>
       <c r="E315" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -6991,10 +7007,10 @@
         <v>71</v>
       </c>
       <c r="E316" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7008,10 +7024,10 @@
         <v>71</v>
       </c>
       <c r="E317" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7025,10 +7041,10 @@
         <v>71</v>
       </c>
       <c r="E318" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>71</v>
       </c>
       <c r="E319" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7059,10 +7075,10 @@
         <v>71</v>
       </c>
       <c r="E320" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7076,10 +7092,10 @@
         <v>71</v>
       </c>
       <c r="E321" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7093,10 +7109,10 @@
         <v>71</v>
       </c>
       <c r="E322" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7110,10 +7126,10 @@
         <v>71</v>
       </c>
       <c r="E323" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7127,10 +7143,10 @@
         <v>71</v>
       </c>
       <c r="E324" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7144,10 +7160,10 @@
         <v>71</v>
       </c>
       <c r="E325" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7161,10 +7177,10 @@
         <v>71</v>
       </c>
       <c r="E326" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7178,10 +7194,10 @@
         <v>71</v>
       </c>
       <c r="E327" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7195,10 +7211,10 @@
         <v>71</v>
       </c>
       <c r="E328" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7212,10 +7228,10 @@
         <v>71</v>
       </c>
       <c r="E329" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7229,10 +7245,10 @@
         <v>71</v>
       </c>
       <c r="E330" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7246,10 +7262,10 @@
         <v>71</v>
       </c>
       <c r="E331" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7263,10 +7279,10 @@
         <v>71</v>
       </c>
       <c r="E332" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7280,10 +7296,10 @@
         <v>71</v>
       </c>
       <c r="E333" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7297,10 +7313,10 @@
         <v>71</v>
       </c>
       <c r="E334" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7314,10 +7330,10 @@
         <v>71</v>
       </c>
       <c r="E335" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7331,10 +7347,10 @@
         <v>71</v>
       </c>
       <c r="E336" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7348,10 +7364,10 @@
         <v>71</v>
       </c>
       <c r="E337" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7365,10 +7381,10 @@
         <v>71</v>
       </c>
       <c r="E338" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7382,10 +7398,10 @@
         <v>71</v>
       </c>
       <c r="E339" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7399,10 +7415,10 @@
         <v>71</v>
       </c>
       <c r="E340" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7416,10 +7432,10 @@
         <v>71</v>
       </c>
       <c r="E341" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7433,10 +7449,10 @@
         <v>71</v>
       </c>
       <c r="E342" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7450,10 +7466,10 @@
         <v>71</v>
       </c>
       <c r="E343" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7467,10 +7483,10 @@
         <v>71</v>
       </c>
       <c r="E344" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7484,10 +7500,10 @@
         <v>71</v>
       </c>
       <c r="E345" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7501,10 +7517,10 @@
         <v>74</v>
       </c>
       <c r="E346" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7518,10 +7534,10 @@
         <v>74</v>
       </c>
       <c r="E347" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7535,10 +7551,10 @@
         <v>74</v>
       </c>
       <c r="E348" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7552,10 +7568,10 @@
         <v>74</v>
       </c>
       <c r="E349" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7569,10 +7585,10 @@
         <v>74</v>
       </c>
       <c r="E350" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7586,10 +7602,10 @@
         <v>74</v>
       </c>
       <c r="E351" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7603,10 +7619,10 @@
         <v>74</v>
       </c>
       <c r="E352" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7620,10 +7636,10 @@
         <v>76</v>
       </c>
       <c r="E353" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7637,10 +7653,10 @@
         <v>76</v>
       </c>
       <c r="E354" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7654,10 +7670,10 @@
         <v>76</v>
       </c>
       <c r="E355" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7671,10 +7687,10 @@
         <v>76</v>
       </c>
       <c r="E356" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7688,10 +7704,10 @@
         <v>78</v>
       </c>
       <c r="E357" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7705,10 +7721,10 @@
         <v>78</v>
       </c>
       <c r="E358" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7722,10 +7738,10 @@
         <v>78</v>
       </c>
       <c r="E359" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7739,10 +7755,10 @@
         <v>78</v>
       </c>
       <c r="E360" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7756,10 +7772,10 @@
         <v>78</v>
       </c>
       <c r="E361" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7773,10 +7789,10 @@
         <v>78</v>
       </c>
       <c r="E362" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7790,10 +7806,10 @@
         <v>78</v>
       </c>
       <c r="E363" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7807,10 +7823,10 @@
         <v>78</v>
       </c>
       <c r="E364" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -7824,10 +7840,10 @@
         <v>78</v>
       </c>
       <c r="E365" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
@@ -7841,10 +7857,10 @@
         <v>78</v>
       </c>
       <c r="E366" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -7858,10 +7874,10 @@
         <v>78</v>
       </c>
       <c r="E367" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -7875,10 +7891,10 @@
         <v>78</v>
       </c>
       <c r="E368" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -7892,10 +7908,10 @@
         <v>78</v>
       </c>
       <c r="E369" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
@@ -7909,10 +7925,10 @@
         <v>78</v>
       </c>
       <c r="E370" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -7926,10 +7942,10 @@
         <v>78</v>
       </c>
       <c r="E371" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
@@ -7943,10 +7959,10 @@
         <v>78</v>
       </c>
       <c r="E372" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -7960,10 +7976,10 @@
         <v>80</v>
       </c>
       <c r="E373" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
@@ -7977,10 +7993,10 @@
         <v>80</v>
       </c>
       <c r="E374" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -7994,10 +8010,10 @@
         <v>80</v>
       </c>
       <c r="E375" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8011,10 +8027,10 @@
         <v>80</v>
       </c>
       <c r="E376" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8028,10 +8044,10 @@
         <v>80</v>
       </c>
       <c r="E377" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8045,10 +8061,10 @@
         <v>80</v>
       </c>
       <c r="E378" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8062,10 +8078,10 @@
         <v>80</v>
       </c>
       <c r="E379" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8079,10 +8095,10 @@
         <v>80</v>
       </c>
       <c r="E380" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8096,10 +8112,10 @@
         <v>80</v>
       </c>
       <c r="E381" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8113,10 +8129,10 @@
         <v>80</v>
       </c>
       <c r="E382" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8130,10 +8146,10 @@
         <v>80</v>
       </c>
       <c r="E383" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8147,10 +8163,10 @@
         <v>80</v>
       </c>
       <c r="E384" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8164,10 +8180,10 @@
         <v>80</v>
       </c>
       <c r="E385" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8181,10 +8197,10 @@
         <v>80</v>
       </c>
       <c r="E386" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8198,10 +8214,10 @@
         <v>80</v>
       </c>
       <c r="E387" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8215,10 +8231,10 @@
         <v>83</v>
       </c>
       <c r="E388" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8232,10 +8248,10 @@
         <v>83</v>
       </c>
       <c r="E389" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8249,10 +8265,10 @@
         <v>83</v>
       </c>
       <c r="E390" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8266,10 +8282,10 @@
         <v>83</v>
       </c>
       <c r="E391" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8283,10 +8299,10 @@
         <v>83</v>
       </c>
       <c r="E392" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8300,10 +8316,10 @@
         <v>85</v>
       </c>
       <c r="E393" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8317,10 +8333,10 @@
         <v>85</v>
       </c>
       <c r="E394" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8334,10 +8350,10 @@
         <v>85</v>
       </c>
       <c r="E395" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8351,10 +8367,10 @@
         <v>85</v>
       </c>
       <c r="E396" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8368,10 +8384,10 @@
         <v>85</v>
       </c>
       <c r="E397" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8385,10 +8401,10 @@
         <v>85</v>
       </c>
       <c r="E398" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8402,10 +8418,10 @@
         <v>85</v>
       </c>
       <c r="E399" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8419,10 +8435,10 @@
         <v>85</v>
       </c>
       <c r="E400" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8436,10 +8452,10 @@
         <v>85</v>
       </c>
       <c r="E401" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8453,10 +8469,10 @@
         <v>86</v>
       </c>
       <c r="E402" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8470,10 +8486,10 @@
         <v>87</v>
       </c>
       <c r="E403" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8487,10 +8503,10 @@
         <v>87</v>
       </c>
       <c r="E404" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8504,10 +8520,10 @@
         <v>87</v>
       </c>
       <c r="E405" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8521,10 +8537,10 @@
         <v>87</v>
       </c>
       <c r="E406" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8538,10 +8554,10 @@
         <v>87</v>
       </c>
       <c r="E407" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8555,10 +8571,10 @@
         <v>87</v>
       </c>
       <c r="E408" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8572,10 +8588,10 @@
         <v>87</v>
       </c>
       <c r="E409" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8589,10 +8605,10 @@
         <v>87</v>
       </c>
       <c r="E410" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8606,10 +8622,10 @@
         <v>87</v>
       </c>
       <c r="E411" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8623,10 +8639,10 @@
         <v>87</v>
       </c>
       <c r="E412" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8640,10 +8656,10 @@
         <v>87</v>
       </c>
       <c r="E413" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8657,10 +8673,10 @@
         <v>87</v>
       </c>
       <c r="E414" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8674,10 +8690,10 @@
         <v>87</v>
       </c>
       <c r="E415" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8691,10 +8707,10 @@
         <v>88</v>
       </c>
       <c r="E416" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8708,10 +8724,10 @@
         <v>88</v>
       </c>
       <c r="E417" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8725,10 +8741,10 @@
         <v>88</v>
       </c>
       <c r="E418" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8742,10 +8758,10 @@
         <v>88</v>
       </c>
       <c r="E419" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8759,10 +8775,10 @@
         <v>88</v>
       </c>
       <c r="E420" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8776,10 +8792,10 @@
         <v>88</v>
       </c>
       <c r="E421" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8793,10 +8809,10 @@
         <v>88</v>
       </c>
       <c r="E422" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8810,10 +8826,10 @@
         <v>88</v>
       </c>
       <c r="E423" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -8827,10 +8843,10 @@
         <v>88</v>
       </c>
       <c r="E424" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -8844,10 +8860,10 @@
         <v>88</v>
       </c>
       <c r="E425" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -8861,10 +8877,10 @@
         <v>88</v>
       </c>
       <c r="E426" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -8878,10 +8894,10 @@
         <v>90</v>
       </c>
       <c r="E427" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -8895,10 +8911,10 @@
         <v>90</v>
       </c>
       <c r="E428" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -8912,10 +8928,10 @@
         <v>90</v>
       </c>
       <c r="E429" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -8929,10 +8945,10 @@
         <v>90</v>
       </c>
       <c r="E430" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -8946,10 +8962,10 @@
         <v>93</v>
       </c>
       <c r="E431" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -8963,10 +8979,10 @@
         <v>93</v>
       </c>
       <c r="E432" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -8980,10 +8996,10 @@
         <v>93</v>
       </c>
       <c r="E433" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -8997,10 +9013,10 @@
         <v>93</v>
       </c>
       <c r="E434" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9014,10 +9030,10 @@
         <v>93</v>
       </c>
       <c r="E435" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9031,7 +9047,7 @@
         <v>93</v>
       </c>
       <c r="E436" t="s">
-        <v>414</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
